--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_17_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_17_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104458.4812267241</v>
+        <v>104458.4812267242</v>
       </c>
     </row>
     <row r="7">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1412,16 +1412,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
         <v>35.57149708268037</v>
       </c>
-      <c r="R11" t="n">
-        <v>52.85678959655596</v>
-      </c>
-      <c r="S11" t="n">
-        <v>52.85678959655596</v>
-      </c>
       <c r="T11" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>46.55626027664648</v>
       </c>
       <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>52.85678959655596</v>
-      </c>
-      <c r="T12" t="n">
-        <v>52.85678959655596</v>
-      </c>
-      <c r="U12" t="n">
-        <v>52.85678959655596</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1619,16 +1619,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>35.57149708268036</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,16 +1649,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>35.57149708268037</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>46.55626027664648</v>
       </c>
       <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
         <v>52.85678959655596</v>
-      </c>
-      <c r="T15" t="n">
-        <v>52.85678959655596</v>
-      </c>
-      <c r="U15" t="n">
-        <v>52.85678959655596</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>52.85678959655596</v>
@@ -1865,7 +1865,7 @@
         <v>52.85678959655596</v>
       </c>
       <c r="J17" t="n">
-        <v>35.57149708268036</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>35.57149708268037</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1932,16 +1932,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>46.55626027664648</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1965,19 +1965,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>25.2836350119195</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>21.27262526472696</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2087,13 +2087,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>23.42693911448697</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.42693911448697</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>64.53649527860378</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>64.53649527860378</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>64.53649527860378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>56.84374504139418</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2205,19 +2205,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>56.84374504139416</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
         <v>64.53649527860378</v>
-      </c>
-      <c r="U21" t="n">
-        <v>64.53649527860378</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>64.53649527860378</v>
@@ -2315,76 +2315,76 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>23.42693911448698</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
         <v>64.53649527860378</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="T23" t="n">
         <v>64.53649527860378</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>64.53649527860378</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>23.42693911448697</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,62 +2394,62 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>56.84374504139416</v>
+      </c>
+      <c r="S24" t="n">
         <v>64.53649527860378</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="T24" t="n">
         <v>64.53649527860378</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
@@ -2457,10 +2457,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>56.84374504139416</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="X24" t="n">
-        <v>64.53649527860378</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2558,70 +2558,70 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>23.42693911448697</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>64.53649527860378</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>16.95928664819069</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>6.4676524662963</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
+      <c r="Y26" t="n">
         <v>64.53649527860378</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>56.84374504139416</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2646,55 +2646,55 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>64.53649527860378</v>
       </c>
-      <c r="H27" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>56.84374504139416</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
         <v>64.53649527860378</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2792,10 +2792,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>23.42693911448699</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2804,58 +2804,58 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
         <v>64.53649527860378</v>
       </c>
-      <c r="H29" t="n">
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>64.53649527860378</v>
-      </c>
-      <c r="I29" t="n">
-        <v>64.53649527860378</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>23.42693911448697</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,22 +2877,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>64.53649527860378</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>31.56011002947466</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,16 +2913,16 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>25.2836350119195</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>64.53649527860378</v>
+        <v>56.84374504139416</v>
       </c>
       <c r="T30" t="n">
-        <v>64.53649527860378</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3074,16 +3074,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>64.53649527860378</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>64.53649527860378</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>64.53649527860378</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>23.42693911448698</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>23.42693911448697</v>
       </c>
     </row>
     <row r="33">
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>56.84374504139418</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>31.56011002947466</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>25.2836350119195</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>64.53649527860378</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
         <v>64.53649527860378</v>
       </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>64.53649527860378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3269,70 +3269,70 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>35.57149708268037</v>
+      </c>
+      <c r="V35" t="n">
         <v>52.85678959655596</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>52.85678959655596</v>
       </c>
-      <c r="J35" t="n">
-        <v>35.57149708268036</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
+      <c r="Y35" t="n">
         <v>52.85678959655596</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,73 +3342,73 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>46.55626027664648</v>
+      </c>
+      <c r="U36" t="n">
         <v>52.85678959655596</v>
       </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="V36" t="n">
         <v>52.85678959655596</v>
       </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>46.55626027664648</v>
-      </c>
-      <c r="S36" t="n">
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
         <v>52.85678959655596</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3548,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>35.57149708268037</v>
       </c>
       <c r="S38" t="n">
-        <v>35.57149708268037</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="T38" t="n">
         <v>52.85678959655596</v>
@@ -3560,7 +3560,7 @@
         <v>52.85678959655596</v>
       </c>
       <c r="V38" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>46.55626027664647</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3624,31 +3624,31 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>25.2836350119195</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>21.27262526472697</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="W39" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3746,10 +3746,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>52.8567895965559</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>52.8567895965559</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,13 +3791,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>52.8567895965559</v>
       </c>
       <c r="V41" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3822,10 +3822,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>52.8567895965559</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>46.55626027664641</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3861,28 +3861,28 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>25.2836350119195</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>52.85678959655596</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>21.27262526472696</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>52.8567895965559</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>52.8567895965559</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>41.17708391450813</v>
+        <v>41.1770839145081</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,19 +3983,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>41.17708391450813</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>41.1770839145081</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>29.80112304560243</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>29.80112304560245</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>41.17708391450813</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>41.1770839145081</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>41.17708391450813</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>41.17708391450813</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>41.1770839145081</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4098,13 +4098,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>25.2836350119195</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>41.1770839145081</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>41.1770839145081</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,16 +4113,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>10.98514049997921</v>
       </c>
       <c r="W45" t="n">
-        <v>36.26877551189874</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>41.17708391450813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.228543167724476</v>
+        <v>111.0099362920799</v>
       </c>
       <c r="C11" t="n">
-        <v>4.228543167724476</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="D11" t="n">
         <v>4.228543167724476</v>
@@ -5060,31 +5060,31 @@
         <v>200.3314379882783</v>
       </c>
       <c r="Q11" t="n">
+        <v>200.3314379882783</v>
+      </c>
+      <c r="R11" t="n">
+        <v>200.3314379882783</v>
+      </c>
+      <c r="S11" t="n">
         <v>164.4006328542577</v>
       </c>
-      <c r="R11" t="n">
-        <v>111.0099362920799</v>
-      </c>
-      <c r="S11" t="n">
-        <v>57.61923972990221</v>
-      </c>
       <c r="T11" t="n">
-        <v>4.228543167724476</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="U11" t="n">
-        <v>4.228543167724476</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="V11" t="n">
-        <v>4.228543167724476</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="W11" t="n">
-        <v>4.228543167724476</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="X11" t="n">
-        <v>4.228543167724476</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.228543167724476</v>
+        <v>164.4006328542577</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.228543167724476</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="C12" t="n">
-        <v>4.228543167724476</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="D12" t="n">
         <v>4.228543167724476</v>
@@ -5121,7 +5121,7 @@
         <v>4.228543167724476</v>
       </c>
       <c r="K12" t="n">
-        <v>11.40944974131076</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="L12" t="n">
         <v>17.21080480983159</v>
@@ -5145,25 +5145,25 @@
         <v>164.4006328542577</v>
       </c>
       <c r="S12" t="n">
+        <v>164.4006328542577</v>
+      </c>
+      <c r="T12" t="n">
+        <v>164.4006328542577</v>
+      </c>
+      <c r="U12" t="n">
+        <v>164.4006328542577</v>
+      </c>
+      <c r="V12" t="n">
+        <v>164.4006328542577</v>
+      </c>
+      <c r="W12" t="n">
+        <v>164.4006328542577</v>
+      </c>
+      <c r="X12" t="n">
+        <v>164.4006328542577</v>
+      </c>
+      <c r="Y12" t="n">
         <v>111.0099362920799</v>
-      </c>
-      <c r="T12" t="n">
-        <v>57.61923972990221</v>
-      </c>
-      <c r="U12" t="n">
-        <v>4.228543167724476</v>
-      </c>
-      <c r="V12" t="n">
-        <v>4.228543167724476</v>
-      </c>
-      <c r="W12" t="n">
-        <v>4.228543167724476</v>
-      </c>
-      <c r="X12" t="n">
-        <v>4.228543167724476</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>4.228543167724476</v>
       </c>
     </row>
     <row r="13">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.228543167724476</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="C14" t="n">
-        <v>4.228543167724476</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="D14" t="n">
-        <v>4.228543167724476</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="E14" t="n">
-        <v>4.228543167724476</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="F14" t="n">
-        <v>4.228543167724476</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="G14" t="n">
-        <v>4.228543167724476</v>
+        <v>146.9407414261005</v>
       </c>
       <c r="H14" t="n">
-        <v>4.228543167724476</v>
+        <v>93.55004486392278</v>
       </c>
       <c r="I14" t="n">
-        <v>4.228543167724476</v>
+        <v>40.15934830174504</v>
       </c>
       <c r="J14" t="n">
         <v>4.228543167724476</v>
@@ -5297,31 +5297,31 @@
         <v>200.3314379882783</v>
       </c>
       <c r="Q14" t="n">
-        <v>164.4006328542577</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="R14" t="n">
-        <v>111.0099362920799</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="S14" t="n">
-        <v>57.61923972990221</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="T14" t="n">
-        <v>4.228543167724476</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="U14" t="n">
-        <v>4.228543167724476</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="V14" t="n">
-        <v>4.228543167724476</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="W14" t="n">
-        <v>4.228543167724476</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="X14" t="n">
-        <v>4.228543167724476</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.228543167724476</v>
+        <v>200.3314379882783</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.228543167724476</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="C15" t="n">
-        <v>4.228543167724476</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="D15" t="n">
         <v>4.228543167724476</v>
@@ -5382,25 +5382,25 @@
         <v>164.4006328542577</v>
       </c>
       <c r="S15" t="n">
+        <v>164.4006328542577</v>
+      </c>
+      <c r="T15" t="n">
+        <v>164.4006328542577</v>
+      </c>
+      <c r="U15" t="n">
+        <v>164.4006328542577</v>
+      </c>
+      <c r="V15" t="n">
+        <v>164.4006328542577</v>
+      </c>
+      <c r="W15" t="n">
+        <v>164.4006328542577</v>
+      </c>
+      <c r="X15" t="n">
         <v>111.0099362920799</v>
       </c>
-      <c r="T15" t="n">
-        <v>57.61923972990221</v>
-      </c>
-      <c r="U15" t="n">
-        <v>4.228543167724476</v>
-      </c>
-      <c r="V15" t="n">
-        <v>4.228543167724476</v>
-      </c>
-      <c r="W15" t="n">
-        <v>4.228543167724476</v>
-      </c>
-      <c r="X15" t="n">
-        <v>4.228543167724476</v>
-      </c>
       <c r="Y15" t="n">
-        <v>4.228543167724476</v>
+        <v>111.0099362920799</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>200.3314379882783</v>
+        <v>111.0099362920799</v>
       </c>
       <c r="C17" t="n">
-        <v>200.3314379882783</v>
+        <v>111.0099362920799</v>
       </c>
       <c r="D17" t="n">
-        <v>200.3314379882783</v>
+        <v>111.0099362920799</v>
       </c>
       <c r="E17" t="n">
-        <v>200.3314379882783</v>
+        <v>111.0099362920799</v>
       </c>
       <c r="F17" t="n">
-        <v>200.3314379882783</v>
+        <v>111.0099362920799</v>
       </c>
       <c r="G17" t="n">
-        <v>146.9407414261005</v>
+        <v>111.0099362920799</v>
       </c>
       <c r="H17" t="n">
-        <v>93.55004486392278</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="I17" t="n">
-        <v>40.15934830174504</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="J17" t="n">
         <v>4.228543167724476</v>
@@ -5534,31 +5534,31 @@
         <v>200.3314379882783</v>
       </c>
       <c r="Q17" t="n">
-        <v>200.3314379882783</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="R17" t="n">
-        <v>200.3314379882783</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="S17" t="n">
-        <v>200.3314379882783</v>
+        <v>111.0099362920799</v>
       </c>
       <c r="T17" t="n">
-        <v>200.3314379882783</v>
+        <v>111.0099362920799</v>
       </c>
       <c r="U17" t="n">
-        <v>200.3314379882783</v>
+        <v>111.0099362920799</v>
       </c>
       <c r="V17" t="n">
-        <v>200.3314379882783</v>
+        <v>111.0099362920799</v>
       </c>
       <c r="W17" t="n">
-        <v>200.3314379882783</v>
+        <v>111.0099362920799</v>
       </c>
       <c r="X17" t="n">
-        <v>200.3314379882783</v>
+        <v>111.0099362920799</v>
       </c>
       <c r="Y17" t="n">
-        <v>200.3314379882783</v>
+        <v>111.0099362920799</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="C18" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="D18" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="E18" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="F18" t="n">
-        <v>4.228543167724476</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="G18" t="n">
-        <v>4.228543167724476</v>
+        <v>111.0099362920799</v>
       </c>
       <c r="H18" t="n">
-        <v>4.228543167724476</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="I18" t="n">
         <v>4.228543167724476</v>
@@ -5595,13 +5595,13 @@
         <v>4.228543167724476</v>
       </c>
       <c r="K18" t="n">
-        <v>11.40944974131076</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="L18" t="n">
-        <v>63.73767144190116</v>
+        <v>17.21080480983159</v>
       </c>
       <c r="M18" t="n">
-        <v>116.0658931424915</v>
+        <v>69.53902651042199</v>
       </c>
       <c r="N18" t="n">
         <v>121.8672482110124</v>
@@ -5613,31 +5613,31 @@
         <v>211.4271583862238</v>
       </c>
       <c r="Q18" t="n">
-        <v>185.8881331216587</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="R18" t="n">
-        <v>132.4974365594809</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="S18" t="n">
-        <v>79.10673999730318</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="T18" t="n">
-        <v>57.61923972990221</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="U18" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="V18" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="W18" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="X18" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862238</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.162919622288302</v>
+        <v>159.203252624</v>
       </c>
       <c r="C20" t="n">
-        <v>5.162919622288302</v>
+        <v>159.203252624</v>
       </c>
       <c r="D20" t="n">
-        <v>5.162919622288302</v>
+        <v>159.203252624</v>
       </c>
       <c r="E20" t="n">
-        <v>5.162919622288302</v>
+        <v>135.5396777608818</v>
       </c>
       <c r="F20" t="n">
-        <v>5.162919622288302</v>
+        <v>70.35129869158506</v>
       </c>
       <c r="G20" t="n">
         <v>5.162919622288302</v>
@@ -5774,28 +5774,28 @@
         <v>224.3916316932967</v>
       </c>
       <c r="R20" t="n">
-        <v>224.3916316932967</v>
+        <v>159.203252624</v>
       </c>
       <c r="S20" t="n">
-        <v>224.3916316932967</v>
+        <v>159.203252624</v>
       </c>
       <c r="T20" t="n">
-        <v>224.3916316932967</v>
+        <v>159.203252624</v>
       </c>
       <c r="U20" t="n">
-        <v>224.3916316932967</v>
+        <v>159.203252624</v>
       </c>
       <c r="V20" t="n">
-        <v>200.7280568301786</v>
+        <v>159.203252624</v>
       </c>
       <c r="W20" t="n">
-        <v>135.5396777608818</v>
+        <v>159.203252624</v>
       </c>
       <c r="X20" t="n">
-        <v>70.35129869158506</v>
+        <v>159.203252624</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.162919622288302</v>
+        <v>159.203252624</v>
       </c>
     </row>
     <row r="21">
@@ -5832,16 +5832,16 @@
         <v>5.162919622288302</v>
       </c>
       <c r="K21" t="n">
-        <v>5.162919622288302</v>
+        <v>12.34382619587459</v>
       </c>
       <c r="L21" t="n">
-        <v>61.14107584454169</v>
+        <v>68.32198241812797</v>
       </c>
       <c r="M21" t="n">
-        <v>125.0322061703594</v>
+        <v>132.2131127439457</v>
       </c>
       <c r="N21" t="n">
-        <v>188.9233364961772</v>
+        <v>157.0231623139763</v>
       </c>
       <c r="O21" t="n">
         <v>220.9142926397941</v>
@@ -5853,28 +5853,28 @@
         <v>258.1459811144151</v>
       </c>
       <c r="R21" t="n">
-        <v>258.1459811144151</v>
+        <v>200.7280568301786</v>
       </c>
       <c r="S21" t="n">
-        <v>258.1459811144151</v>
+        <v>200.7280568301786</v>
       </c>
       <c r="T21" t="n">
-        <v>192.9576020451184</v>
+        <v>200.7280568301786</v>
       </c>
       <c r="U21" t="n">
-        <v>127.7692229758216</v>
+        <v>200.7280568301786</v>
       </c>
       <c r="V21" t="n">
-        <v>127.7692229758216</v>
+        <v>135.5396777608818</v>
       </c>
       <c r="W21" t="n">
-        <v>62.58084390652485</v>
+        <v>70.35129869158506</v>
       </c>
       <c r="X21" t="n">
-        <v>62.58084390652485</v>
+        <v>70.35129869158506</v>
       </c>
       <c r="Y21" t="n">
-        <v>62.58084390652485</v>
+        <v>70.35129869158506</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="C22" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="D22" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="E22" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="F22" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="G22" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="H22" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="I22" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="J22" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="K22" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="L22" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="M22" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="N22" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="O22" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="P22" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="Q22" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="R22" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="S22" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="T22" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="U22" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="V22" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="W22" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="X22" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="Y22" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>135.5396777608818</v>
+        <v>28.82649448540647</v>
       </c>
       <c r="C23" t="n">
-        <v>135.5396777608818</v>
+        <v>28.82649448540647</v>
       </c>
       <c r="D23" t="n">
-        <v>135.5396777608818</v>
+        <v>28.82649448540647</v>
       </c>
       <c r="E23" t="n">
-        <v>135.5396777608818</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="F23" t="n">
-        <v>70.35129869158506</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="G23" t="n">
-        <v>70.35129869158506</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="H23" t="n">
         <v>5.162919622288302</v>
@@ -6008,31 +6008,31 @@
         <v>224.3916316932967</v>
       </c>
       <c r="Q23" t="n">
-        <v>200.7280568301786</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="R23" t="n">
-        <v>200.7280568301786</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="S23" t="n">
-        <v>200.7280568301786</v>
+        <v>159.203252624</v>
       </c>
       <c r="T23" t="n">
-        <v>200.7280568301786</v>
+        <v>94.01487355470323</v>
       </c>
       <c r="U23" t="n">
-        <v>200.7280568301786</v>
+        <v>94.01487355470323</v>
       </c>
       <c r="V23" t="n">
-        <v>200.7280568301786</v>
+        <v>94.01487355470323</v>
       </c>
       <c r="W23" t="n">
-        <v>200.7280568301786</v>
+        <v>94.01487355470323</v>
       </c>
       <c r="X23" t="n">
-        <v>200.7280568301786</v>
+        <v>94.01487355470323</v>
       </c>
       <c r="Y23" t="n">
-        <v>200.7280568301786</v>
+        <v>28.82649448540647</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>70.35129869158506</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="C24" t="n">
-        <v>70.35129869158506</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="D24" t="n">
         <v>5.162919622288302</v>
@@ -6078,10 +6078,10 @@
         <v>132.2131127439457</v>
       </c>
       <c r="N24" t="n">
-        <v>194.2548507885974</v>
+        <v>196.1042430697635</v>
       </c>
       <c r="O24" t="n">
-        <v>258.1459811144151</v>
+        <v>220.9142926397941</v>
       </c>
       <c r="P24" t="n">
         <v>258.1459811144151</v>
@@ -6090,28 +6090,28 @@
         <v>258.1459811144151</v>
       </c>
       <c r="R24" t="n">
-        <v>258.1459811144151</v>
+        <v>200.7280568301786</v>
       </c>
       <c r="S24" t="n">
-        <v>258.1459811144151</v>
+        <v>135.5396777608818</v>
       </c>
       <c r="T24" t="n">
-        <v>258.1459811144151</v>
+        <v>70.35129869158506</v>
       </c>
       <c r="U24" t="n">
-        <v>258.1459811144151</v>
+        <v>70.35129869158506</v>
       </c>
       <c r="V24" t="n">
-        <v>258.1459811144151</v>
+        <v>70.35129869158506</v>
       </c>
       <c r="W24" t="n">
-        <v>200.7280568301786</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="X24" t="n">
-        <v>135.5396777608818</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="Y24" t="n">
-        <v>135.5396777608818</v>
+        <v>5.162919622288302</v>
       </c>
     </row>
     <row r="25">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>94.01487355470323</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="C26" t="n">
-        <v>94.01487355470323</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="D26" t="n">
-        <v>28.82649448540647</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="E26" t="n">
-        <v>28.82649448540647</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="F26" t="n">
-        <v>11.69590191147648</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="G26" t="n">
-        <v>11.69590191147648</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="H26" t="n">
-        <v>11.69590191147648</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="I26" t="n">
-        <v>11.69590191147648</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="J26" t="n">
-        <v>11.69590191147648</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="K26" t="n">
         <v>5.162919622288302</v>
@@ -6260,16 +6260,16 @@
         <v>224.3916316932967</v>
       </c>
       <c r="V26" t="n">
-        <v>224.3916316932967</v>
+        <v>200.7280568301786</v>
       </c>
       <c r="W26" t="n">
-        <v>159.203252624</v>
+        <v>200.7280568301786</v>
       </c>
       <c r="X26" t="n">
-        <v>159.203252624</v>
+        <v>135.5396777608818</v>
       </c>
       <c r="Y26" t="n">
-        <v>159.203252624</v>
+        <v>70.35129869158506</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>200.7280568301786</v>
+        <v>135.5396777608818</v>
       </c>
       <c r="C27" t="n">
-        <v>200.7280568301786</v>
+        <v>135.5396777608818</v>
       </c>
       <c r="D27" t="n">
-        <v>200.7280568301786</v>
+        <v>135.5396777608818</v>
       </c>
       <c r="E27" t="n">
-        <v>135.5396777608818</v>
+        <v>70.35129869158506</v>
       </c>
       <c r="F27" t="n">
-        <v>135.5396777608818</v>
+        <v>70.35129869158506</v>
       </c>
       <c r="G27" t="n">
         <v>70.35129869158506</v>
       </c>
       <c r="H27" t="n">
-        <v>5.162919622288302</v>
+        <v>70.35129869158506</v>
       </c>
       <c r="I27" t="n">
         <v>5.162919622288302</v>
@@ -6318,7 +6318,7 @@
         <v>196.1042430697635</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9142926397941</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="P27" t="n">
         <v>258.1459811144151</v>
@@ -6336,19 +6336,19 @@
         <v>258.1459811144151</v>
       </c>
       <c r="U27" t="n">
-        <v>258.1459811144151</v>
+        <v>200.7280568301786</v>
       </c>
       <c r="V27" t="n">
-        <v>258.1459811144151</v>
+        <v>200.7280568301786</v>
       </c>
       <c r="W27" t="n">
-        <v>258.1459811144151</v>
+        <v>135.5396777608818</v>
       </c>
       <c r="X27" t="n">
-        <v>258.1459811144151</v>
+        <v>135.5396777608818</v>
       </c>
       <c r="Y27" t="n">
-        <v>258.1459811144151</v>
+        <v>135.5396777608818</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="C28" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="D28" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="E28" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="F28" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="G28" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="H28" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="I28" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="J28" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="K28" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="L28" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="M28" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="N28" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="O28" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="P28" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="Q28" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="R28" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="S28" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="T28" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="U28" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="W28" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="X28" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="Y28" t="n">
-        <v>258.1459811144151</v>
+        <v>5.162919622288302</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>200.7280568301786</v>
+        <v>94.01487355470323</v>
       </c>
       <c r="C29" t="n">
-        <v>200.7280568301786</v>
+        <v>70.35129869158506</v>
       </c>
       <c r="D29" t="n">
-        <v>200.7280568301786</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="E29" t="n">
-        <v>200.7280568301786</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="F29" t="n">
-        <v>200.7280568301786</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="G29" t="n">
-        <v>135.5396777608818</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="H29" t="n">
-        <v>70.35129869158506</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="I29" t="n">
         <v>5.162919622288302</v>
@@ -6485,28 +6485,28 @@
         <v>224.3916316932967</v>
       </c>
       <c r="R29" t="n">
-        <v>224.3916316932967</v>
+        <v>159.203252624</v>
       </c>
       <c r="S29" t="n">
-        <v>224.3916316932967</v>
+        <v>159.203252624</v>
       </c>
       <c r="T29" t="n">
-        <v>200.7280568301786</v>
+        <v>159.203252624</v>
       </c>
       <c r="U29" t="n">
-        <v>200.7280568301786</v>
+        <v>159.203252624</v>
       </c>
       <c r="V29" t="n">
-        <v>200.7280568301786</v>
+        <v>159.203252624</v>
       </c>
       <c r="W29" t="n">
-        <v>200.7280568301786</v>
+        <v>159.203252624</v>
       </c>
       <c r="X29" t="n">
-        <v>200.7280568301786</v>
+        <v>94.01487355470323</v>
       </c>
       <c r="Y29" t="n">
-        <v>200.7280568301786</v>
+        <v>94.01487355470323</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>102.2301977112564</v>
+        <v>135.5396777608818</v>
       </c>
       <c r="C30" t="n">
-        <v>102.2301977112564</v>
+        <v>135.5396777608818</v>
       </c>
       <c r="D30" t="n">
-        <v>102.2301977112564</v>
+        <v>135.5396777608818</v>
       </c>
       <c r="E30" t="n">
-        <v>102.2301977112564</v>
+        <v>70.35129869158506</v>
       </c>
       <c r="F30" t="n">
-        <v>102.2301977112564</v>
+        <v>70.35129869158506</v>
       </c>
       <c r="G30" t="n">
-        <v>102.2301977112564</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="H30" t="n">
-        <v>102.2301977112564</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="I30" t="n">
-        <v>37.04181864195968</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="J30" t="n">
         <v>5.162919622288302</v>
       </c>
       <c r="K30" t="n">
-        <v>12.34382619587459</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="L30" t="n">
-        <v>68.32198241812797</v>
+        <v>61.14107584454169</v>
       </c>
       <c r="M30" t="n">
-        <v>93.1320319881586</v>
+        <v>125.0322061703594</v>
       </c>
       <c r="N30" t="n">
-        <v>157.0231623139763</v>
+        <v>188.9233364961772</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9142926397941</v>
+        <v>252.8144668219949</v>
       </c>
       <c r="P30" t="n">
         <v>258.1459811144151</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.60695584985</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="R30" t="n">
-        <v>232.60695584985</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="S30" t="n">
-        <v>167.4185767805532</v>
+        <v>200.7280568301786</v>
       </c>
       <c r="T30" t="n">
-        <v>102.2301977112564</v>
+        <v>200.7280568301786</v>
       </c>
       <c r="U30" t="n">
-        <v>102.2301977112564</v>
+        <v>200.7280568301786</v>
       </c>
       <c r="V30" t="n">
-        <v>102.2301977112564</v>
+        <v>200.7280568301786</v>
       </c>
       <c r="W30" t="n">
-        <v>102.2301977112564</v>
+        <v>200.7280568301786</v>
       </c>
       <c r="X30" t="n">
-        <v>102.2301977112564</v>
+        <v>200.7280568301786</v>
       </c>
       <c r="Y30" t="n">
-        <v>102.2301977112564</v>
+        <v>200.7280568301786</v>
       </c>
     </row>
     <row r="31">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.162919622288302</v>
+        <v>135.5396777608818</v>
       </c>
       <c r="C32" t="n">
-        <v>5.162919622288302</v>
+        <v>70.35129869158506</v>
       </c>
       <c r="D32" t="n">
-        <v>5.162919622288302</v>
+        <v>70.35129869158506</v>
       </c>
       <c r="E32" t="n">
         <v>5.162919622288302</v>
@@ -6722,28 +6722,28 @@
         <v>224.3916316932967</v>
       </c>
       <c r="R32" t="n">
-        <v>159.203252624</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="S32" t="n">
-        <v>94.01487355470323</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="T32" t="n">
-        <v>28.82649448540647</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="U32" t="n">
-        <v>5.162919622288302</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="V32" t="n">
-        <v>5.162919622288302</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="W32" t="n">
-        <v>5.162919622288302</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="X32" t="n">
-        <v>5.162919622288302</v>
+        <v>224.3916316932967</v>
       </c>
       <c r="Y32" t="n">
-        <v>5.162919622288302</v>
+        <v>200.7280568301786</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>37.04181864195968</v>
+        <v>62.58084390652485</v>
       </c>
       <c r="C33" t="n">
-        <v>37.04181864195968</v>
+        <v>62.58084390652485</v>
       </c>
       <c r="D33" t="n">
-        <v>37.04181864195968</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="E33" t="n">
-        <v>37.04181864195968</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="F33" t="n">
-        <v>37.04181864195968</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="G33" t="n">
-        <v>37.04181864195968</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="H33" t="n">
-        <v>37.04181864195968</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="I33" t="n">
-        <v>37.04181864195968</v>
+        <v>5.162919622288302</v>
       </c>
       <c r="J33" t="n">
         <v>5.162919622288302</v>
@@ -6786,10 +6786,10 @@
         <v>68.32198241812797</v>
       </c>
       <c r="M33" t="n">
-        <v>132.2131127439457</v>
+        <v>93.1320319881586</v>
       </c>
       <c r="N33" t="n">
-        <v>196.1042430697635</v>
+        <v>157.0231623139763</v>
       </c>
       <c r="O33" t="n">
         <v>220.9142926397941</v>
@@ -6798,31 +6798,31 @@
         <v>258.1459811144151</v>
       </c>
       <c r="Q33" t="n">
-        <v>232.60695584985</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="R33" t="n">
-        <v>167.4185767805532</v>
+        <v>192.9576020451184</v>
       </c>
       <c r="S33" t="n">
-        <v>167.4185767805532</v>
+        <v>192.9576020451184</v>
       </c>
       <c r="T33" t="n">
-        <v>102.2301977112564</v>
+        <v>192.9576020451184</v>
       </c>
       <c r="U33" t="n">
-        <v>102.2301977112564</v>
+        <v>192.9576020451184</v>
       </c>
       <c r="V33" t="n">
-        <v>102.2301977112564</v>
+        <v>127.7692229758216</v>
       </c>
       <c r="W33" t="n">
-        <v>102.2301977112564</v>
+        <v>62.58084390652485</v>
       </c>
       <c r="X33" t="n">
-        <v>102.2301977112564</v>
+        <v>62.58084390652485</v>
       </c>
       <c r="Y33" t="n">
-        <v>37.04181864195968</v>
+        <v>62.58084390652485</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5.162919622288302</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="C34" t="n">
-        <v>5.162919622288302</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="D34" t="n">
-        <v>5.162919622288302</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="E34" t="n">
-        <v>5.162919622288302</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="F34" t="n">
-        <v>5.162919622288302</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="G34" t="n">
-        <v>5.162919622288302</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="H34" t="n">
-        <v>5.162919622288302</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="I34" t="n">
-        <v>5.162919622288302</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="J34" t="n">
-        <v>5.162919622288302</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="K34" t="n">
-        <v>5.162919622288302</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="L34" t="n">
-        <v>5.162919622288302</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="M34" t="n">
-        <v>5.162919622288302</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="N34" t="n">
-        <v>5.162919622288302</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="O34" t="n">
-        <v>5.162919622288302</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="P34" t="n">
-        <v>5.162919622288302</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.162919622288302</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="R34" t="n">
-        <v>5.162919622288302</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="S34" t="n">
-        <v>5.162919622288302</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="T34" t="n">
-        <v>5.162919622288302</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="U34" t="n">
-        <v>5.162919622288302</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="V34" t="n">
-        <v>5.162919622288302</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="W34" t="n">
-        <v>5.162919622288302</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="X34" t="n">
-        <v>5.162919622288302</v>
+        <v>258.1459811144151</v>
       </c>
       <c r="Y34" t="n">
-        <v>5.162919622288302</v>
+        <v>258.1459811144151</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>146.9407414261005</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="C35" t="n">
-        <v>146.9407414261005</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="D35" t="n">
-        <v>93.55004486392278</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="E35" t="n">
-        <v>93.55004486392278</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="F35" t="n">
-        <v>93.55004486392278</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="G35" t="n">
-        <v>93.55004486392278</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="H35" t="n">
-        <v>93.55004486392278</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="I35" t="n">
-        <v>40.15934830174504</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="J35" t="n">
         <v>4.228543167724476</v>
@@ -6959,28 +6959,28 @@
         <v>200.3314379882783</v>
       </c>
       <c r="R35" t="n">
-        <v>146.9407414261005</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="S35" t="n">
-        <v>146.9407414261005</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="T35" t="n">
-        <v>146.9407414261005</v>
+        <v>200.3314379882783</v>
       </c>
       <c r="U35" t="n">
-        <v>146.9407414261005</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="V35" t="n">
-        <v>146.9407414261005</v>
+        <v>111.0099362920799</v>
       </c>
       <c r="W35" t="n">
-        <v>146.9407414261005</v>
+        <v>111.0099362920799</v>
       </c>
       <c r="X35" t="n">
-        <v>146.9407414261005</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="Y35" t="n">
-        <v>146.9407414261005</v>
+        <v>4.228543167724476</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>57.61923972990221</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="C36" t="n">
-        <v>57.61923972990221</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="D36" t="n">
-        <v>57.61923972990221</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="E36" t="n">
-        <v>57.61923972990221</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="F36" t="n">
         <v>4.228543167724476</v>
@@ -7023,10 +7023,10 @@
         <v>63.73767144190116</v>
       </c>
       <c r="M36" t="n">
-        <v>69.53902651042199</v>
+        <v>116.0658931424915</v>
       </c>
       <c r="N36" t="n">
-        <v>121.8672482110124</v>
+        <v>168.394114843082</v>
       </c>
       <c r="O36" t="n">
         <v>174.1954699116028</v>
@@ -7038,28 +7038,28 @@
         <v>211.4271583862238</v>
       </c>
       <c r="R36" t="n">
+        <v>211.4271583862238</v>
+      </c>
+      <c r="S36" t="n">
+        <v>211.4271583862238</v>
+      </c>
+      <c r="T36" t="n">
         <v>164.4006328542577</v>
-      </c>
-      <c r="S36" t="n">
-        <v>111.0099362920799</v>
-      </c>
-      <c r="T36" t="n">
-        <v>111.0099362920799</v>
       </c>
       <c r="U36" t="n">
         <v>111.0099362920799</v>
       </c>
       <c r="V36" t="n">
-        <v>111.0099362920799</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="W36" t="n">
-        <v>111.0099362920799</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="X36" t="n">
-        <v>111.0099362920799</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="Y36" t="n">
-        <v>111.0099362920799</v>
+        <v>4.228543167724476</v>
       </c>
     </row>
     <row r="37">
@@ -7196,16 +7196,16 @@
         <v>200.3314379882783</v>
       </c>
       <c r="R38" t="n">
-        <v>200.3314379882783</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="S38" t="n">
-        <v>164.4006328542577</v>
+        <v>111.0099362920799</v>
       </c>
       <c r="T38" t="n">
-        <v>111.0099362920799</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="U38" t="n">
-        <v>57.61923972990221</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="V38" t="n">
         <v>4.228543167724476</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>51.25506869969061</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="C39" t="n">
-        <v>51.25506869969061</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="D39" t="n">
-        <v>51.25506869969061</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="E39" t="n">
-        <v>51.25506869969061</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="F39" t="n">
         <v>4.228543167724476</v>
@@ -7254,13 +7254,13 @@
         <v>4.228543167724476</v>
       </c>
       <c r="K39" t="n">
-        <v>4.228543167724476</v>
+        <v>11.40944974131076</v>
       </c>
       <c r="L39" t="n">
-        <v>56.55676486831487</v>
+        <v>63.73767144190116</v>
       </c>
       <c r="M39" t="n">
-        <v>108.8849865689053</v>
+        <v>69.53902651042199</v>
       </c>
       <c r="N39" t="n">
         <v>121.8672482110124</v>
@@ -7272,31 +7272,31 @@
         <v>211.4271583862238</v>
       </c>
       <c r="Q39" t="n">
-        <v>211.4271583862238</v>
+        <v>185.8881331216587</v>
       </c>
       <c r="R39" t="n">
-        <v>211.4271583862238</v>
+        <v>185.8881331216587</v>
       </c>
       <c r="S39" t="n">
-        <v>211.4271583862238</v>
+        <v>164.4006328542577</v>
       </c>
       <c r="T39" t="n">
-        <v>211.4271583862238</v>
+        <v>111.0099362920799</v>
       </c>
       <c r="U39" t="n">
-        <v>211.4271583862238</v>
+        <v>57.61923972990221</v>
       </c>
       <c r="V39" t="n">
-        <v>211.4271583862238</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="W39" t="n">
-        <v>158.0364618240461</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="X39" t="n">
-        <v>104.6457652618683</v>
+        <v>4.228543167724476</v>
       </c>
       <c r="Y39" t="n">
-        <v>51.25506869969061</v>
+        <v>4.228543167724476</v>
       </c>
     </row>
     <row r="40">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>104.6457652618683</v>
+        <v>146.9407414261004</v>
       </c>
       <c r="C41" t="n">
-        <v>68.71496012784777</v>
+        <v>111.0099362920798</v>
       </c>
       <c r="D41" t="n">
-        <v>68.71496012784777</v>
+        <v>111.0099362920798</v>
       </c>
       <c r="E41" t="n">
-        <v>68.71496012784777</v>
+        <v>57.61923972990216</v>
       </c>
       <c r="F41" t="n">
-        <v>68.71496012784777</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="G41" t="n">
-        <v>68.71496012784777</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="H41" t="n">
-        <v>68.71496012784777</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="I41" t="n">
-        <v>15.32426356567004</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="J41" t="n">
-        <v>15.32426356567004</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="K41" t="n">
-        <v>15.32426356567004</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="L41" t="n">
-        <v>44.28256757815024</v>
+        <v>33.18684718020467</v>
       </c>
       <c r="M41" t="n">
-        <v>96.61078927874064</v>
+        <v>85.51506888079501</v>
       </c>
       <c r="N41" t="n">
-        <v>148.939010979331</v>
+        <v>137.8432905813854</v>
       </c>
       <c r="O41" t="n">
-        <v>201.2672326799214</v>
+        <v>190.1715122819757</v>
       </c>
       <c r="P41" t="n">
-        <v>211.4271583862238</v>
+        <v>200.3314379882781</v>
       </c>
       <c r="Q41" t="n">
-        <v>211.4271583862238</v>
+        <v>200.3314379882781</v>
       </c>
       <c r="R41" t="n">
-        <v>211.4271583862238</v>
+        <v>200.3314379882781</v>
       </c>
       <c r="S41" t="n">
-        <v>211.4271583862238</v>
+        <v>200.3314379882781</v>
       </c>
       <c r="T41" t="n">
-        <v>158.0364618240461</v>
+        <v>200.3314379882781</v>
       </c>
       <c r="U41" t="n">
-        <v>158.0364618240461</v>
+        <v>146.9407414261004</v>
       </c>
       <c r="V41" t="n">
-        <v>104.6457652618683</v>
+        <v>146.9407414261004</v>
       </c>
       <c r="W41" t="n">
-        <v>104.6457652618683</v>
+        <v>146.9407414261004</v>
       </c>
       <c r="X41" t="n">
-        <v>104.6457652618683</v>
+        <v>146.9407414261004</v>
       </c>
       <c r="Y41" t="n">
-        <v>104.6457652618683</v>
+        <v>146.9407414261004</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4.228543167724476</v>
+        <v>104.6457652618682</v>
       </c>
       <c r="C42" t="n">
-        <v>4.228543167724476</v>
+        <v>104.6457652618682</v>
       </c>
       <c r="D42" t="n">
-        <v>4.228543167724476</v>
+        <v>51.25506869969055</v>
       </c>
       <c r="E42" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="F42" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="G42" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="H42" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="I42" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="J42" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="K42" t="n">
-        <v>4.228543167724476</v>
+        <v>11.40944974131076</v>
       </c>
       <c r="L42" t="n">
-        <v>56.55676486831487</v>
+        <v>63.7376714419011</v>
       </c>
       <c r="M42" t="n">
-        <v>108.8849865689053</v>
+        <v>116.0658931424914</v>
       </c>
       <c r="N42" t="n">
-        <v>161.2132082694957</v>
+        <v>168.3941148430818</v>
       </c>
       <c r="O42" t="n">
-        <v>174.1954699116028</v>
+        <v>174.1954699116026</v>
       </c>
       <c r="P42" t="n">
-        <v>211.4271583862238</v>
+        <v>211.4271583862236</v>
       </c>
       <c r="Q42" t="n">
-        <v>185.8881331216587</v>
+        <v>211.4271583862236</v>
       </c>
       <c r="R42" t="n">
-        <v>132.4974365594809</v>
+        <v>211.4271583862236</v>
       </c>
       <c r="S42" t="n">
-        <v>79.10673999730318</v>
+        <v>211.4271583862236</v>
       </c>
       <c r="T42" t="n">
-        <v>25.71604343512544</v>
+        <v>211.4271583862236</v>
       </c>
       <c r="U42" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862236</v>
       </c>
       <c r="V42" t="n">
-        <v>4.228543167724476</v>
+        <v>211.4271583862236</v>
       </c>
       <c r="W42" t="n">
-        <v>4.228543167724476</v>
+        <v>158.0364618240459</v>
       </c>
       <c r="X42" t="n">
-        <v>4.228543167724476</v>
+        <v>104.6457652618682</v>
       </c>
       <c r="Y42" t="n">
-        <v>4.228543167724476</v>
+        <v>104.6457652618682</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="C43" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="D43" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="E43" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="F43" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="G43" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="H43" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="I43" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="J43" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="K43" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="L43" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="M43" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="N43" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="O43" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="P43" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="Q43" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="R43" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="S43" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="T43" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="U43" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="V43" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="W43" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="X43" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
       <c r="Y43" t="n">
-        <v>4.228543167724476</v>
+        <v>4.228543167724472</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>51.42016305740756</v>
+        <v>81.52230754791503</v>
       </c>
       <c r="C44" t="n">
-        <v>51.42016305740756</v>
+        <v>81.52230754791503</v>
       </c>
       <c r="D44" t="n">
-        <v>51.42016305740756</v>
+        <v>81.52230754791503</v>
       </c>
       <c r="E44" t="n">
-        <v>9.827149002348833</v>
+        <v>81.52230754791503</v>
       </c>
       <c r="F44" t="n">
-        <v>9.827149002348833</v>
+        <v>81.52230754791503</v>
       </c>
       <c r="G44" t="n">
-        <v>9.827149002348833</v>
+        <v>39.92929349285634</v>
       </c>
       <c r="H44" t="n">
-        <v>9.827149002348833</v>
+        <v>39.92929349285634</v>
       </c>
       <c r="I44" t="n">
-        <v>9.827149002348833</v>
+        <v>9.827149002348831</v>
       </c>
       <c r="J44" t="n">
-        <v>9.827149002348833</v>
+        <v>9.827149002348831</v>
       </c>
       <c r="K44" t="n">
-        <v>3.294166713160651</v>
+        <v>3.294166713160648</v>
       </c>
       <c r="L44" t="n">
-        <v>32.25247072564095</v>
+        <v>32.25247072564091</v>
       </c>
       <c r="M44" t="n">
-        <v>73.017783801004</v>
+        <v>73.01778380100393</v>
       </c>
       <c r="N44" t="n">
-        <v>113.7830968763671</v>
+        <v>113.783096876367</v>
       </c>
       <c r="O44" t="n">
-        <v>154.5484099517302</v>
+        <v>154.54840995173</v>
       </c>
       <c r="P44" t="n">
-        <v>164.7083356580325</v>
+        <v>164.7083356580324</v>
       </c>
       <c r="Q44" t="n">
-        <v>164.7083356580325</v>
+        <v>164.7083356580324</v>
       </c>
       <c r="R44" t="n">
-        <v>164.7083356580325</v>
+        <v>164.7083356580324</v>
       </c>
       <c r="S44" t="n">
-        <v>164.7083356580325</v>
+        <v>164.7083356580324</v>
       </c>
       <c r="T44" t="n">
-        <v>164.7083356580325</v>
+        <v>164.7083356580324</v>
       </c>
       <c r="U44" t="n">
-        <v>164.7083356580325</v>
+        <v>164.7083356580324</v>
       </c>
       <c r="V44" t="n">
-        <v>134.606191167525</v>
+        <v>164.7083356580324</v>
       </c>
       <c r="W44" t="n">
-        <v>134.606191167525</v>
+        <v>164.7083356580324</v>
       </c>
       <c r="X44" t="n">
-        <v>93.01317711246628</v>
+        <v>164.7083356580324</v>
       </c>
       <c r="Y44" t="n">
-        <v>93.01317711246628</v>
+        <v>123.1153216029737</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>44.88718076821937</v>
+        <v>44.88718076821934</v>
       </c>
       <c r="C45" t="n">
-        <v>3.294166713160651</v>
+        <v>44.88718076821934</v>
       </c>
       <c r="D45" t="n">
-        <v>3.294166713160651</v>
+        <v>44.88718076821934</v>
       </c>
       <c r="E45" t="n">
-        <v>3.294166713160651</v>
+        <v>44.88718076821934</v>
       </c>
       <c r="F45" t="n">
-        <v>3.294166713160651</v>
+        <v>44.88718076821934</v>
       </c>
       <c r="G45" t="n">
-        <v>3.294166713160651</v>
+        <v>3.294166713160648</v>
       </c>
       <c r="H45" t="n">
-        <v>3.294166713160651</v>
+        <v>3.294166713160648</v>
       </c>
       <c r="I45" t="n">
-        <v>3.294166713160651</v>
+        <v>3.294166713160648</v>
       </c>
       <c r="J45" t="n">
-        <v>3.294166713160651</v>
+        <v>3.294166713160648</v>
       </c>
       <c r="K45" t="n">
-        <v>10.47507328674694</v>
+        <v>10.47507328674693</v>
       </c>
       <c r="L45" t="n">
-        <v>45.9460210326854</v>
+        <v>51.24038636210995</v>
       </c>
       <c r="M45" t="n">
-        <v>86.71133410804845</v>
+        <v>92.00569943747297</v>
       </c>
       <c r="N45" t="n">
-        <v>127.4766471834115</v>
+        <v>127.4766471834114</v>
       </c>
       <c r="O45" t="n">
-        <v>127.4766471834115</v>
+        <v>127.4766471834114</v>
       </c>
       <c r="P45" t="n">
-        <v>164.7083356580325</v>
+        <v>164.7083356580324</v>
       </c>
       <c r="Q45" t="n">
-        <v>164.7083356580325</v>
+        <v>139.1693103934672</v>
       </c>
       <c r="R45" t="n">
-        <v>164.7083356580325</v>
+        <v>97.57629633840855</v>
       </c>
       <c r="S45" t="n">
-        <v>164.7083356580325</v>
+        <v>55.98328228334986</v>
       </c>
       <c r="T45" t="n">
-        <v>164.7083356580325</v>
+        <v>55.98328228334986</v>
       </c>
       <c r="U45" t="n">
-        <v>164.7083356580325</v>
+        <v>55.98328228334986</v>
       </c>
       <c r="V45" t="n">
-        <v>164.7083356580325</v>
+        <v>44.88718076821934</v>
       </c>
       <c r="W45" t="n">
-        <v>128.0732088783368</v>
+        <v>44.88718076821934</v>
       </c>
       <c r="X45" t="n">
-        <v>128.0732088783368</v>
+        <v>44.88718076821934</v>
       </c>
       <c r="Y45" t="n">
-        <v>86.4801948232781</v>
+        <v>44.88718076821934</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.294166713160651</v>
+        <v>3.294166713160648</v>
       </c>
       <c r="C46" t="n">
-        <v>3.294166713160651</v>
+        <v>3.294166713160648</v>
       </c>
       <c r="D46" t="n">
-        <v>3.294166713160651</v>
+        <v>3.294166713160648</v>
       </c>
       <c r="E46" t="n">
-        <v>3.294166713160651</v>
+        <v>3.294166713160648</v>
       </c>
       <c r="F46" t="n">
-        <v>3.294166713160651</v>
+        <v>3.294166713160648</v>
       </c>
       <c r="G46" t="n">
-        <v>3.294166713160651</v>
+        <v>3.294166713160648</v>
       </c>
       <c r="H46" t="n">
-        <v>3.294166713160651</v>
+        <v>3.294166713160648</v>
       </c>
       <c r="I46" t="n">
-        <v>3.294166713160651</v>
+        <v>3.294166713160648</v>
       </c>
       <c r="J46" t="n">
-        <v>3.294166713160651</v>
+        <v>3.294166713160648</v>
       </c>
       <c r="K46" t="n">
-        <v>3.294166713160651</v>
+        <v>3.294166713160648</v>
       </c>
       <c r="L46" t="n">
-        <v>3.294166713160651</v>
+        <v>3.294166713160648</v>
       </c>
       <c r="M46" t="n">
-        <v>3.294166713160651</v>
+        <v>3.294166713160648</v>
       </c>
       <c r="N46" t="n">
-        <v>3.294166713160651</v>
+        <v>3.294166713160648</v>
       </c>
       <c r="O46" t="n">
-        <v>3.294166713160651</v>
+        <v>3.294166713160648</v>
       </c>
       <c r="P46" t="n">
-        <v>3.294166713160651</v>
+        <v>3.294166713160648</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.294166713160651</v>
+        <v>3.294166713160648</v>
       </c>
       <c r="R46" t="n">
-        <v>3.294166713160651</v>
+        <v>3.294166713160648</v>
       </c>
       <c r="S46" t="n">
-        <v>3.294166713160651</v>
+        <v>3.294166713160648</v>
       </c>
       <c r="T46" t="n">
-        <v>3.294166713160651</v>
+        <v>3.294166713160648</v>
       </c>
       <c r="U46" t="n">
-        <v>3.294166713160651</v>
+        <v>3.294166713160648</v>
       </c>
       <c r="V46" t="n">
-        <v>3.294166713160651</v>
+        <v>3.294166713160648</v>
       </c>
       <c r="W46" t="n">
-        <v>3.294166713160651</v>
+        <v>3.294166713160648</v>
       </c>
       <c r="X46" t="n">
-        <v>3.294166713160651</v>
+        <v>3.294166713160648</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.294166713160651</v>
+        <v>3.294166713160648</v>
       </c>
     </row>
   </sheetData>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>329.8770520669246</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>312.4161021744516</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>301.826252024127</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23300,16 +23300,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.381094343304454</v>
+        <v>40.95259142598482</v>
       </c>
       <c r="R11" t="n">
-        <v>57.23700421263703</v>
+        <v>110.093793809193</v>
       </c>
       <c r="S11" t="n">
-        <v>117.8946294969817</v>
+        <v>135.1799220108573</v>
       </c>
       <c r="T11" t="n">
-        <v>162.8876165213076</v>
+        <v>215.7444061178635</v>
       </c>
       <c r="U11" t="n">
         <v>251.2113032846037</v>
@@ -23334,13 +23334,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>113.6763940533114</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>94.5882759680828</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23385,13 +23385,13 @@
         <v>43.33480028665129</v>
       </c>
       <c r="S12" t="n">
-        <v>102.1363519931662</v>
+        <v>154.9931415897222</v>
       </c>
       <c r="T12" t="n">
-        <v>143.6861829888271</v>
+        <v>196.542972585383</v>
       </c>
       <c r="U12" t="n">
-        <v>173.0254778580407</v>
+        <v>225.8822674545966</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>152.8259061807484</v>
       </c>
     </row>
     <row r="13">
@@ -23507,16 +23507,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.6233672247255</v>
+        <v>360.7665776281696</v>
       </c>
       <c r="H14" t="n">
-        <v>322.2759511291103</v>
+        <v>269.4191615325543</v>
       </c>
       <c r="I14" t="n">
-        <v>145.7319664493916</v>
+        <v>92.87517685283561</v>
       </c>
       <c r="J14" t="n">
-        <v>38.51145034103843</v>
+        <v>2.939953258358067</v>
       </c>
       <c r="K14" t="n">
         <v>6.4676524662963</v>
@@ -23537,16 +23537,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.381094343304454</v>
+        <v>40.95259142598482</v>
       </c>
       <c r="R14" t="n">
-        <v>57.23700421263703</v>
+        <v>110.093793809193</v>
       </c>
       <c r="S14" t="n">
-        <v>117.8946294969817</v>
+        <v>170.7514190935376</v>
       </c>
       <c r="T14" t="n">
-        <v>162.8876165213076</v>
+        <v>215.7444061178635</v>
       </c>
       <c r="U14" t="n">
         <v>251.2113032846037</v>
@@ -23571,13 +23571,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>113.6763940533114</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>94.5882759680828</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23622,13 +23622,13 @@
         <v>43.33480028665129</v>
       </c>
       <c r="S15" t="n">
-        <v>102.1363519931662</v>
+        <v>154.9931415897222</v>
       </c>
       <c r="T15" t="n">
-        <v>143.6861829888271</v>
+        <v>196.542972585383</v>
       </c>
       <c r="U15" t="n">
-        <v>173.0254778580407</v>
+        <v>225.8822674545966</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23637,7 +23637,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>152.9161956069215</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23744,7 +23744,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>360.7665776281696</v>
+        <v>413.6233672247255</v>
       </c>
       <c r="H17" t="n">
         <v>269.4191615325543</v>
@@ -23753,7 +23753,7 @@
         <v>92.87517685283561</v>
       </c>
       <c r="J17" t="n">
-        <v>2.939953258358067</v>
+        <v>38.51145034103843</v>
       </c>
       <c r="K17" t="n">
         <v>6.4676524662963</v>
@@ -23774,13 +23774,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>40.95259142598482</v>
+        <v>5.381094343304454</v>
       </c>
       <c r="R17" t="n">
         <v>110.093793809193</v>
       </c>
       <c r="S17" t="n">
-        <v>170.7514190935376</v>
+        <v>117.8946294969817</v>
       </c>
       <c r="T17" t="n">
         <v>215.7444061178635</v>
@@ -23820,16 +23820,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>98.51295211673741</v>
       </c>
       <c r="G18" t="n">
-        <v>136.4449748422618</v>
+        <v>83.58818524570583</v>
       </c>
       <c r="H18" t="n">
-        <v>103.5574170841747</v>
+        <v>50.70062748761875</v>
       </c>
       <c r="I18" t="n">
-        <v>68.58572552873486</v>
+        <v>15.7289359321789</v>
       </c>
       <c r="J18" t="n">
         <v>41.94508221245999</v>
@@ -23853,19 +23853,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>25.2836350119195</v>
       </c>
       <c r="R18" t="n">
-        <v>37.03427096674181</v>
+        <v>89.89106056329777</v>
       </c>
       <c r="S18" t="n">
-        <v>102.1363519931662</v>
+        <v>154.9931415897222</v>
       </c>
       <c r="T18" t="n">
-        <v>175.2703473206561</v>
+        <v>196.542972585383</v>
       </c>
       <c r="U18" t="n">
-        <v>173.0254778580407</v>
+        <v>225.8822674545966</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23975,13 +23975,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>358.5034309577748</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>342.3395504631077</v>
       </c>
       <c r="G20" t="n">
-        <v>413.6233672247255</v>
+        <v>349.0868719461217</v>
       </c>
       <c r="H20" t="n">
         <v>322.2759511291103</v>
@@ -24014,7 +24014,7 @@
         <v>40.95259142598482</v>
       </c>
       <c r="R20" t="n">
-        <v>110.093793809193</v>
+        <v>45.55729853058921</v>
       </c>
       <c r="S20" t="n">
         <v>170.7514190935376</v>
@@ -24026,16 +24026,16 @@
         <v>251.2113032846037</v>
       </c>
       <c r="V20" t="n">
-        <v>304.3253193556479</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>284.7044734388093</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>305.1946053998653</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>321.7014433774498</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>109.6894386084732</v>
+        <v>101.9966883712636</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24093,19 +24093,19 @@
         <v>25.2836350119195</v>
       </c>
       <c r="R21" t="n">
-        <v>89.89106056329777</v>
+        <v>33.04731552190361</v>
       </c>
       <c r="S21" t="n">
         <v>154.9931415897222</v>
       </c>
       <c r="T21" t="n">
-        <v>132.0064773067793</v>
+        <v>196.542972585383</v>
       </c>
       <c r="U21" t="n">
-        <v>161.3457721759928</v>
+        <v>225.8822674545966</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>168.2640918708215</v>
       </c>
       <c r="W21" t="n">
         <v>187.1584878823158</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>318.1973463848768</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,16 +24212,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>358.5034309577748</v>
       </c>
       <c r="F23" t="n">
-        <v>342.3395504631077</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.6233672247255</v>
       </c>
       <c r="H23" t="n">
-        <v>257.7394558505065</v>
+        <v>322.2759511291103</v>
       </c>
       <c r="I23" t="n">
         <v>145.7319664493916</v>
@@ -24248,16 +24248,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>17.52565231149785</v>
+        <v>40.95259142598482</v>
       </c>
       <c r="R23" t="n">
         <v>110.093793809193</v>
       </c>
       <c r="S23" t="n">
-        <v>170.7514190935376</v>
+        <v>106.2149238149339</v>
       </c>
       <c r="T23" t="n">
-        <v>215.7444061178635</v>
+        <v>151.2079108392598</v>
       </c>
       <c r="U23" t="n">
         <v>251.2113032846037</v>
@@ -24272,7 +24272,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>321.7014433774498</v>
       </c>
     </row>
     <row r="24">
@@ -24282,13 +24282,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>101.9966883712636</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>82.90857028603497</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24330,13 +24330,13 @@
         <v>25.2836350119195</v>
       </c>
       <c r="R24" t="n">
-        <v>89.89106056329777</v>
+        <v>33.04731552190361</v>
       </c>
       <c r="S24" t="n">
-        <v>154.9931415897222</v>
+        <v>90.45664631111839</v>
       </c>
       <c r="T24" t="n">
-        <v>196.542972585383</v>
+        <v>132.0064773067793</v>
       </c>
       <c r="U24" t="n">
         <v>225.8822674545966</v>
@@ -24345,10 +24345,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>194.8512381195254</v>
+        <v>187.1584878823158</v>
       </c>
       <c r="X24" t="n">
-        <v>141.2364899248737</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24446,13 +24446,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>290.1465463420792</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>389.9167590935207</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.6233672247255</v>
@@ -24467,7 +24467,7 @@
         <v>38.51145034103843</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>6.4676524662963</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -24500,16 +24500,16 @@
         <v>251.2113032846037</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>304.3253193556479</v>
       </c>
       <c r="W26" t="n">
-        <v>284.7044734388093</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>305.1946053998653</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>321.7014433774498</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>109.6894386084732</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24534,13 +24534,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>71.90847956365801</v>
+        <v>136.4449748422618</v>
       </c>
       <c r="H27" t="n">
-        <v>39.02092180557092</v>
+        <v>103.5574170841747</v>
       </c>
       <c r="I27" t="n">
-        <v>68.58572552873486</v>
+        <v>4.049230250131075</v>
       </c>
       <c r="J27" t="n">
         <v>41.94508221245999</v>
@@ -24576,13 +24576,13 @@
         <v>196.542972585383</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8822674545966</v>
+        <v>169.0385224132025</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>187.1584878823158</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24680,10 +24680,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>341.8459526565206</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>290.1465463420792</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24692,13 +24692,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>349.0868719461217</v>
+        <v>413.6233672247255</v>
       </c>
       <c r="H29" t="n">
-        <v>257.7394558505065</v>
+        <v>322.2759511291103</v>
       </c>
       <c r="I29" t="n">
-        <v>81.19547117078778</v>
+        <v>145.7319664493916</v>
       </c>
       <c r="J29" t="n">
         <v>38.51145034103843</v>
@@ -24725,13 +24725,13 @@
         <v>40.95259142598482</v>
       </c>
       <c r="R29" t="n">
-        <v>110.093793809193</v>
+        <v>45.55729853058921</v>
       </c>
       <c r="S29" t="n">
         <v>170.7514190935376</v>
       </c>
       <c r="T29" t="n">
-        <v>192.3174670033766</v>
+        <v>215.7444061178635</v>
       </c>
       <c r="U29" t="n">
         <v>251.2113032846037</v>
@@ -24743,7 +24743,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>305.1946053998653</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,7 +24756,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>101.9966883712636</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24765,22 +24765,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>93.10858517679716</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.4449748422618</v>
+        <v>71.90847956365801</v>
       </c>
       <c r="H30" t="n">
         <v>103.5574170841747</v>
       </c>
       <c r="I30" t="n">
-        <v>4.049230250131075</v>
+        <v>68.58572552873486</v>
       </c>
       <c r="J30" t="n">
-        <v>10.38497218298533</v>
+        <v>41.94508221245999</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24801,16 +24801,16 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>25.2836350119195</v>
       </c>
       <c r="R30" t="n">
         <v>89.89106056329777</v>
       </c>
       <c r="S30" t="n">
-        <v>90.45664631111839</v>
+        <v>98.14939654832801</v>
       </c>
       <c r="T30" t="n">
-        <v>132.0064773067793</v>
+        <v>196.542972585383</v>
       </c>
       <c r="U30" t="n">
         <v>225.8822674545966</v>
@@ -24914,16 +24914,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>318.1973463848768</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>300.7363964924037</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>317.393874793658</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24962,16 +24962,16 @@
         <v>40.95259142598482</v>
       </c>
       <c r="R32" t="n">
-        <v>45.55729853058921</v>
+        <v>110.093793809193</v>
       </c>
       <c r="S32" t="n">
-        <v>106.2149238149339</v>
+        <v>170.7514190935376</v>
       </c>
       <c r="T32" t="n">
-        <v>151.2079108392598</v>
+        <v>215.7444061178635</v>
       </c>
       <c r="U32" t="n">
-        <v>227.7843641701168</v>
+        <v>251.2113032846037</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>362.8109995415666</v>
       </c>
     </row>
     <row r="33">
@@ -24999,7 +24999,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>90.60132052324457</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25017,7 +25017,7 @@
         <v>68.58572552873486</v>
       </c>
       <c r="J33" t="n">
-        <v>10.38497218298533</v>
+        <v>41.94508221245999</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25038,7 +25038,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>25.2836350119195</v>
       </c>
       <c r="R33" t="n">
         <v>25.35456528469399</v>
@@ -25047,22 +25047,22 @@
         <v>154.9931415897222</v>
       </c>
       <c r="T33" t="n">
-        <v>132.0064773067793</v>
+        <v>196.542972585383</v>
       </c>
       <c r="U33" t="n">
         <v>225.8822674545966</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>168.2640918708215</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>187.1584878823158</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>141.1462004987006</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25157,7 +25157,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>301.826252024127</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25172,10 +25172,10 @@
         <v>322.2759511291103</v>
       </c>
       <c r="I35" t="n">
-        <v>92.87517685283561</v>
+        <v>145.7319664493916</v>
       </c>
       <c r="J35" t="n">
-        <v>2.939953258358067</v>
+        <v>38.51145034103843</v>
       </c>
       <c r="K35" t="n">
         <v>6.4676524662963</v>
@@ -25199,7 +25199,7 @@
         <v>40.95259142598482</v>
       </c>
       <c r="R35" t="n">
-        <v>57.23700421263703</v>
+        <v>110.093793809193</v>
       </c>
       <c r="S35" t="n">
         <v>170.7514190935376</v>
@@ -25208,19 +25208,19 @@
         <v>215.7444061178635</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2113032846037</v>
+        <v>215.6398062019234</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>274.8954688735789</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>316.8743110819131</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>333.3811490594976</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>113.6763940533114</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25242,7 +25242,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>92.21242279682792</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>136.4449748422618</v>
@@ -25278,25 +25278,25 @@
         <v>25.2836350119195</v>
       </c>
       <c r="R36" t="n">
-        <v>43.33480028665129</v>
+        <v>89.89106056329777</v>
       </c>
       <c r="S36" t="n">
-        <v>102.1363519931662</v>
+        <v>154.9931415897222</v>
       </c>
       <c r="T36" t="n">
-        <v>196.542972585383</v>
+        <v>149.9867123087366</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8822674545966</v>
+        <v>173.0254778580407</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>179.9437975528693</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>152.9161956069215</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25436,10 +25436,10 @@
         <v>40.95259142598482</v>
       </c>
       <c r="R38" t="n">
-        <v>110.093793809193</v>
+        <v>74.52229672651262</v>
       </c>
       <c r="S38" t="n">
-        <v>135.1799220108573</v>
+        <v>117.8946294969817</v>
       </c>
       <c r="T38" t="n">
         <v>162.8876165213076</v>
@@ -25448,7 +25448,7 @@
         <v>198.3545136880478</v>
       </c>
       <c r="V38" t="n">
-        <v>274.8954688735789</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25479,7 +25479,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>98.51295211673741</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>136.4449748422618</v>
@@ -25512,31 +25512,31 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>25.2836350119195</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>89.89106056329777</v>
       </c>
       <c r="S39" t="n">
-        <v>154.9931415897222</v>
+        <v>133.7205163249952</v>
       </c>
       <c r="T39" t="n">
-        <v>196.542972585383</v>
+        <v>143.6861829888271</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8822674545966</v>
+        <v>173.0254778580407</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>179.9437975528693</v>
       </c>
       <c r="W39" t="n">
-        <v>198.8381935643636</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>152.9161956069215</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>152.8259061807484</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25634,10 +25634,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>329.0735804757059</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>354.0192561451555</v>
       </c>
       <c r="G41" t="n">
         <v>413.6233672247255</v>
@@ -25646,7 +25646,7 @@
         <v>322.2759511291103</v>
       </c>
       <c r="I41" t="n">
-        <v>92.87517685283561</v>
+        <v>145.7319664493916</v>
       </c>
       <c r="J41" t="n">
         <v>38.51145034103843</v>
@@ -25679,13 +25679,13 @@
         <v>170.7514190935376</v>
       </c>
       <c r="T41" t="n">
-        <v>162.8876165213076</v>
+        <v>215.7444061178635</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2113032846037</v>
+        <v>198.3545136880478</v>
       </c>
       <c r="V41" t="n">
-        <v>274.8954688735789</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25710,10 +25710,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>94.58827596808285</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>111.0888201787545</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25749,28 +25749,28 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>25.2836350119195</v>
       </c>
       <c r="R42" t="n">
-        <v>37.03427096674181</v>
+        <v>89.89106056329777</v>
       </c>
       <c r="S42" t="n">
-        <v>102.1363519931662</v>
+        <v>154.9931415897222</v>
       </c>
       <c r="T42" t="n">
-        <v>143.6861829888271</v>
+        <v>196.542972585383</v>
       </c>
       <c r="U42" t="n">
-        <v>204.6096421898696</v>
+        <v>225.8822674545966</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>198.8381935643637</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>152.9161956069216</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25871,19 +25871,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>340.7532861577537</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.6233672247255</v>
+        <v>372.4462833102174</v>
       </c>
       <c r="H44" t="n">
         <v>322.2759511291103</v>
       </c>
       <c r="I44" t="n">
-        <v>145.7319664493916</v>
+        <v>115.9308434037891</v>
       </c>
       <c r="J44" t="n">
         <v>38.51145034103843</v>
@@ -25922,16 +25922,16 @@
         <v>251.2113032846037</v>
       </c>
       <c r="V44" t="n">
-        <v>297.9511354245325</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>328.5540167639609</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>345.0608547415455</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25941,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>125.3560997353592</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>131.5314150738076</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25956,7 +25956,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.4449748422618</v>
+        <v>95.26789092775368</v>
       </c>
       <c r="H45" t="n">
         <v>103.5574170841747</v>
@@ -25986,13 +25986,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>25.2836350119195</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>89.89106056329777</v>
+        <v>48.71397664878967</v>
       </c>
       <c r="S45" t="n">
-        <v>154.9931415897222</v>
+        <v>113.8160576752141</v>
       </c>
       <c r="T45" t="n">
         <v>196.542972585383</v>
@@ -26001,16 +26001,16 @@
         <v>225.8822674545966</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>221.8154466494461</v>
       </c>
       <c r="W45" t="n">
-        <v>215.4262076490209</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>164.5056118627962</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>349671.1689289951</v>
+        <v>349671.1689289953</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>349671.1689289953</v>
+        <v>349671.1689289951</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>349671.1689289953</v>
+        <v>349671.1689289951</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>344429.212181854</v>
+        <v>344429.2121818539</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>344429.212181854</v>
+        <v>344429.2121818539</v>
       </c>
     </row>
     <row r="15">
@@ -26323,16 +26323,16 @@
         <v>86107.30304546338</v>
       </c>
       <c r="F2" t="n">
-        <v>86107.3030454634</v>
+        <v>86107.30304546341</v>
       </c>
       <c r="G2" t="n">
         <v>86107.30304546338</v>
       </c>
       <c r="H2" t="n">
-        <v>87417.79223224874</v>
+        <v>87417.79223224871</v>
       </c>
       <c r="I2" t="n">
-        <v>87417.79223224873</v>
+        <v>87417.79223224871</v>
       </c>
       <c r="J2" t="n">
         <v>87417.79223224873</v>
@@ -26341,7 +26341,7 @@
         <v>87417.79223224873</v>
       </c>
       <c r="L2" t="n">
-        <v>87417.7922322487</v>
+        <v>87417.79223224873</v>
       </c>
       <c r="M2" t="n">
         <v>86107.30304546338</v>
@@ -26353,7 +26353,7 @@
         <v>86107.30304546338</v>
       </c>
       <c r="P2" t="n">
-        <v>84477.89265072223</v>
+        <v>84477.89265072221</v>
       </c>
     </row>
     <row r="3">
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3151.289710367644</v>
+        <v>3151.289710367642</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26433,19 +26433,19 @@
         <v>36.96213895906128</v>
       </c>
       <c r="H4" t="n">
-        <v>42.69255649714916</v>
+        <v>42.69255649714917</v>
       </c>
       <c r="I4" t="n">
-        <v>42.69255649714916</v>
+        <v>42.69255649714917</v>
       </c>
       <c r="J4" t="n">
-        <v>42.69255649714916</v>
+        <v>42.69255649714917</v>
       </c>
       <c r="K4" t="n">
-        <v>42.69255649714916</v>
+        <v>42.69255649714917</v>
       </c>
       <c r="L4" t="n">
-        <v>42.69255649714916</v>
+        <v>42.69255649714917</v>
       </c>
       <c r="M4" t="n">
         <v>36.96213895906128</v>
@@ -26454,10 +26454,10 @@
         <v>36.96213895906128</v>
       </c>
       <c r="O4" t="n">
-        <v>36.96213895906128</v>
+        <v>36.96213895906125</v>
       </c>
       <c r="P4" t="n">
-        <v>29.8371645625369</v>
+        <v>29.83716456253688</v>
       </c>
     </row>
     <row r="5">
@@ -26531,16 +26531,16 @@
         <v>-15483.2569516415</v>
       </c>
       <c r="F6" t="n">
-        <v>73749.84285671533</v>
+        <v>73749.84285671535</v>
       </c>
       <c r="G6" t="n">
         <v>73749.84285671532</v>
       </c>
       <c r="H6" t="n">
-        <v>71193.18581012644</v>
+        <v>71193.18581012641</v>
       </c>
       <c r="I6" t="n">
-        <v>74344.47552049406</v>
+        <v>74344.47552049404</v>
       </c>
       <c r="J6" t="n">
         <v>74344.47552049406</v>
@@ -26549,7 +26549,7 @@
         <v>74344.47552049406</v>
       </c>
       <c r="L6" t="n">
-        <v>74344.47552049403</v>
+        <v>74344.47552049406</v>
       </c>
       <c r="M6" t="n">
         <v>63488.34883688424</v>
@@ -26561,7 +26561,7 @@
         <v>73749.84285671532</v>
       </c>
       <c r="P6" t="n">
-        <v>72837.6835418392</v>
+        <v>72837.68354183917</v>
       </c>
     </row>
   </sheetData>
@@ -26826,10 +26826,10 @@
         <v>52.85678959655596</v>
       </c>
       <c r="O4" t="n">
-        <v>52.85678959655596</v>
+        <v>52.8567895965559</v>
       </c>
       <c r="P4" t="n">
-        <v>41.17708391450813</v>
+        <v>41.1770839145081</v>
       </c>
     </row>
   </sheetData>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>11.67970568204783</v>
+        <v>11.67970568204782</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>11.67970568204783</v>
+        <v>11.67970568204782</v>
       </c>
     </row>
   </sheetData>
@@ -31841,10 +31841,10 @@
         <v>84.8925444542067</v>
       </c>
       <c r="K12" t="n">
-        <v>145.0948799577795</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>144.4143343945417</v>
+        <v>151.6677753779622</v>
       </c>
       <c r="M12" t="n">
         <v>194.9908235185743</v>
@@ -32315,16 +32315,16 @@
         <v>84.8925444542067</v>
       </c>
       <c r="K18" t="n">
-        <v>145.0948799577795</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>191.4111693764301</v>
+        <v>151.6677753779622</v>
       </c>
       <c r="M18" t="n">
         <v>194.9908235185743</v>
       </c>
       <c r="N18" t="n">
-        <v>137.2016666980008</v>
+        <v>184.1985016798893</v>
       </c>
       <c r="O18" t="n">
         <v>195.4530340410004</v>
@@ -32552,7 +32552,7 @@
         <v>84.8925444542067</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>145.0948799577795</v>
       </c>
       <c r="L21" t="n">
         <v>195.0979719235645</v>
@@ -32561,10 +32561,10 @@
         <v>206.6705292006221</v>
       </c>
       <c r="N21" t="n">
-        <v>195.8782073619371</v>
+        <v>156.4023682146774</v>
       </c>
       <c r="O21" t="n">
-        <v>174.910341559209</v>
+        <v>207.1327397230482</v>
       </c>
       <c r="P21" t="n">
         <v>171.5821735503111</v>
@@ -32798,13 +32798,13 @@
         <v>206.6705292006221</v>
       </c>
       <c r="N24" t="n">
-        <v>194.0101343506582</v>
+        <v>195.8782073619371</v>
       </c>
       <c r="O24" t="n">
-        <v>207.1327397230482</v>
+        <v>167.6569005757885</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>171.5821735503111</v>
       </c>
       <c r="Q24" t="n">
         <v>114.698139074102</v>
@@ -33038,10 +33038,10 @@
         <v>195.8782073619371</v>
       </c>
       <c r="O27" t="n">
-        <v>167.6569005757885</v>
+        <v>205.2646667117693</v>
       </c>
       <c r="P27" t="n">
-        <v>171.5821735503111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>114.698139074102</v>
@@ -33263,13 +33263,13 @@
         <v>84.8925444542067</v>
       </c>
       <c r="K30" t="n">
-        <v>145.0948799577795</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>195.0979719235645</v>
       </c>
       <c r="M30" t="n">
-        <v>167.1946900533624</v>
+        <v>206.6705292006221</v>
       </c>
       <c r="N30" t="n">
         <v>195.8782073619371</v>
@@ -33278,7 +33278,7 @@
         <v>207.1327397230482</v>
       </c>
       <c r="P30" t="n">
-        <v>171.5821735503111</v>
+        <v>139.3597753864719</v>
       </c>
       <c r="Q30" t="n">
         <v>114.698139074102</v>
@@ -33506,13 +33506,13 @@
         <v>195.0979719235645</v>
       </c>
       <c r="M33" t="n">
-        <v>206.6705292006221</v>
+        <v>167.1946900533624</v>
       </c>
       <c r="N33" t="n">
         <v>195.8782073619371</v>
       </c>
       <c r="O33" t="n">
-        <v>167.6569005757885</v>
+        <v>207.1327397230482</v>
       </c>
       <c r="P33" t="n">
         <v>171.5821735503111</v>
@@ -33743,13 +33743,13 @@
         <v>191.4111693764301</v>
       </c>
       <c r="M36" t="n">
-        <v>147.9939885366858</v>
+        <v>194.9908235185743</v>
       </c>
       <c r="N36" t="n">
         <v>184.1985016798893</v>
       </c>
       <c r="O36" t="n">
-        <v>195.4530340410004</v>
+        <v>148.456199059112</v>
       </c>
       <c r="P36" t="n">
         <v>171.5821735503111</v>
@@ -33974,16 +33974,16 @@
         <v>84.8925444542067</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>145.0948799577795</v>
       </c>
       <c r="L39" t="n">
         <v>191.4111693764301</v>
       </c>
       <c r="M39" t="n">
-        <v>194.9908235185743</v>
+        <v>147.9939885366858</v>
       </c>
       <c r="N39" t="n">
-        <v>144.4551076814213</v>
+        <v>184.1985016798893</v>
       </c>
       <c r="O39" t="n">
         <v>195.4530340410004</v>
@@ -34138,13 +34138,13 @@
         <v>265.0172271038056</v>
       </c>
       <c r="M41" t="n">
-        <v>283.2030228238287</v>
+        <v>283.2030228238286</v>
       </c>
       <c r="N41" t="n">
-        <v>282.2698531931469</v>
+        <v>282.2698531931468</v>
       </c>
       <c r="O41" t="n">
-        <v>282.9550010182427</v>
+        <v>282.9550010182426</v>
       </c>
       <c r="P41" t="n">
         <v>241.4955469737568</v>
@@ -34211,19 +34211,19 @@
         <v>84.8925444542067</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>145.0948799577795</v>
       </c>
       <c r="L42" t="n">
         <v>191.4111693764301</v>
       </c>
       <c r="M42" t="n">
-        <v>194.9908235185743</v>
+        <v>194.9908235185742</v>
       </c>
       <c r="N42" t="n">
-        <v>184.1985016798893</v>
+        <v>184.1985016798892</v>
       </c>
       <c r="O42" t="n">
-        <v>155.7096400425324</v>
+        <v>148.4561990591119</v>
       </c>
       <c r="P42" t="n">
         <v>171.5821735503111</v>
@@ -34375,10 +34375,10 @@
         <v>265.0172271038056</v>
       </c>
       <c r="M44" t="n">
-        <v>271.5233171417809</v>
+        <v>271.5233171417808</v>
       </c>
       <c r="N44" t="n">
-        <v>270.5901475110991</v>
+        <v>270.590147511099</v>
       </c>
       <c r="O44" t="n">
         <v>271.2752953361949</v>
@@ -34451,13 +34451,13 @@
         <v>145.0948799577795</v>
       </c>
       <c r="L45" t="n">
-        <v>174.3836199272868</v>
+        <v>179.7314636943823</v>
       </c>
       <c r="M45" t="n">
         <v>183.3111178365264</v>
       </c>
       <c r="N45" t="n">
-        <v>172.5187959978414</v>
+        <v>167.1709522307459</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>7.253440983420489</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5.859954614667508</v>
+        <v>13.113395598088</v>
       </c>
       <c r="M12" t="n">
         <v>52.85678959655596</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>7.253440983420489</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>52.85678959655596</v>
+        <v>13.113395598088</v>
       </c>
       <c r="M18" t="n">
         <v>52.85678959655596</v>
       </c>
       <c r="N18" t="n">
-        <v>5.859954614667524</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="O18" t="n">
         <v>52.85678959655596</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>7.253440983420489</v>
       </c>
       <c r="L21" t="n">
         <v>56.54359214369029</v>
@@ -36209,10 +36209,10 @@
         <v>64.53649527860378</v>
       </c>
       <c r="N21" t="n">
+        <v>25.06065613134407</v>
+      </c>
+      <c r="O21" t="n">
         <v>64.53649527860378</v>
-      </c>
-      <c r="O21" t="n">
-        <v>32.31409711476457</v>
       </c>
       <c r="P21" t="n">
         <v>37.60776613598082</v>
@@ -36446,13 +36446,13 @@
         <v>64.53649527860378</v>
       </c>
       <c r="N24" t="n">
-        <v>62.6684222673249</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="O24" t="n">
-        <v>64.53649527860378</v>
+        <v>25.06065613134407</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>37.60776613598082</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>64.53649527860378</v>
       </c>
       <c r="O27" t="n">
-        <v>25.06065613134407</v>
+        <v>62.6684222673249</v>
       </c>
       <c r="P27" t="n">
-        <v>37.60776613598082</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>7.253440983420489</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>56.54359214369029</v>
       </c>
       <c r="M30" t="n">
-        <v>25.06065613134407</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="N30" t="n">
         <v>64.53649527860378</v>
@@ -36926,7 +36926,7 @@
         <v>64.53649527860378</v>
       </c>
       <c r="P30" t="n">
-        <v>37.60776613598082</v>
+        <v>5.385367972141611</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>56.54359214369029</v>
       </c>
       <c r="M33" t="n">
-        <v>64.53649527860378</v>
+        <v>25.06065613134407</v>
       </c>
       <c r="N33" t="n">
         <v>64.53649527860378</v>
       </c>
       <c r="O33" t="n">
-        <v>25.06065613134407</v>
+        <v>64.53649527860378</v>
       </c>
       <c r="P33" t="n">
         <v>37.60776613598082</v>
@@ -37391,13 +37391,13 @@
         <v>52.85678959655596</v>
       </c>
       <c r="M36" t="n">
-        <v>5.85995461466751</v>
+        <v>52.85678959655596</v>
       </c>
       <c r="N36" t="n">
         <v>52.85678959655596</v>
       </c>
       <c r="O36" t="n">
-        <v>52.85678959655596</v>
+        <v>5.859954614667524</v>
       </c>
       <c r="P36" t="n">
         <v>37.60776613598082</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>7.253440983420489</v>
       </c>
       <c r="L39" t="n">
         <v>52.85678959655596</v>
       </c>
       <c r="M39" t="n">
+        <v>5.85995461466751</v>
+      </c>
+      <c r="N39" t="n">
         <v>52.85678959655596</v>
-      </c>
-      <c r="N39" t="n">
-        <v>13.113395598088</v>
       </c>
       <c r="O39" t="n">
         <v>52.85678959655596</v>
@@ -37786,13 +37786,13 @@
         <v>29.25081213381839</v>
       </c>
       <c r="M41" t="n">
-        <v>52.85678959655596</v>
+        <v>52.8567895965559</v>
       </c>
       <c r="N41" t="n">
-        <v>52.85678959655596</v>
+        <v>52.8567895965559</v>
       </c>
       <c r="O41" t="n">
-        <v>52.85678959655596</v>
+        <v>52.8567895965559</v>
       </c>
       <c r="P41" t="n">
         <v>10.26255121848726</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>7.253440983420489</v>
       </c>
       <c r="L42" t="n">
-        <v>52.85678959655596</v>
+        <v>52.8567895965559</v>
       </c>
       <c r="M42" t="n">
-        <v>52.85678959655596</v>
+        <v>52.8567895965559</v>
       </c>
       <c r="N42" t="n">
-        <v>52.85678959655596</v>
+        <v>52.8567895965559</v>
       </c>
       <c r="O42" t="n">
-        <v>13.113395598088</v>
+        <v>5.859954614667466</v>
       </c>
       <c r="P42" t="n">
         <v>37.60776613598082</v>
@@ -38023,13 +38023,13 @@
         <v>29.25081213381839</v>
       </c>
       <c r="M44" t="n">
-        <v>41.17708391450813</v>
+        <v>41.1770839145081</v>
       </c>
       <c r="N44" t="n">
-        <v>41.17708391450813</v>
+        <v>41.1770839145081</v>
       </c>
       <c r="O44" t="n">
-        <v>41.17708391450813</v>
+        <v>41.1770839145081</v>
       </c>
       <c r="P44" t="n">
         <v>10.26255121848726</v>
@@ -38099,13 +38099,13 @@
         <v>7.253440983420489</v>
       </c>
       <c r="L45" t="n">
-        <v>35.82924014741259</v>
+        <v>41.1770839145081</v>
       </c>
       <c r="M45" t="n">
-        <v>41.17708391450813</v>
+        <v>41.1770839145081</v>
       </c>
       <c r="N45" t="n">
-        <v>41.17708391450813</v>
+        <v>35.82924014741254</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
